--- a/public/form.xlsx
+++ b/public/form.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/quangnhat/my-vue-app/public/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A3FB5DE7-920D-564D-B499-6A05218C4053}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{09AE4937-C0F2-1F46-AADB-7A53FEF9E219}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="940" yWindow="500" windowWidth="21900" windowHeight="14360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -221,6 +221,7 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -233,7 +234,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -567,7 +567,7 @@
   <dimension ref="B1:H444"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="156" zoomScaleNormal="180" workbookViewId="0">
-      <selection activeCell="G14" sqref="G14"/>
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -583,51 +583,51 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:8" ht="18" x14ac:dyDescent="0.2">
-      <c r="B1" s="9" t="s">
+      <c r="B1" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="C1" s="9"/>
-      <c r="D1" s="9"/>
-      <c r="E1" s="9"/>
-      <c r="F1" s="9"/>
-      <c r="G1" s="9"/>
+      <c r="C1" s="10"/>
+      <c r="D1" s="10"/>
+      <c r="E1" s="10"/>
+      <c r="F1" s="10"/>
+      <c r="G1" s="10"/>
     </row>
     <row r="2" spans="2:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B2" s="8" t="s">
+      <c r="B2" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="8"/>
-      <c r="D2" s="8"/>
-      <c r="E2" s="8"/>
-      <c r="F2" s="8"/>
-      <c r="G2" s="8"/>
+      <c r="C2" s="9"/>
+      <c r="D2" s="9"/>
+      <c r="E2" s="9"/>
+      <c r="F2" s="9"/>
+      <c r="G2" s="9"/>
     </row>
     <row r="3" spans="2:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B3" s="8"/>
-      <c r="C3" s="8"/>
-      <c r="D3" s="8"/>
-      <c r="E3" s="8"/>
-      <c r="F3" s="8"/>
-      <c r="G3" s="8"/>
+      <c r="B3" s="9"/>
+      <c r="C3" s="9"/>
+      <c r="D3" s="9"/>
+      <c r="E3" s="9"/>
+      <c r="F3" s="9"/>
+      <c r="G3" s="9"/>
     </row>
     <row r="4" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B4" s="10" t="s">
+      <c r="B4" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="C4" s="10"/>
-      <c r="D4" s="10"/>
-      <c r="E4" s="10"/>
-      <c r="F4" s="10"/>
+      <c r="C4" s="11"/>
+      <c r="D4" s="11"/>
+      <c r="E4" s="11"/>
+      <c r="F4" s="11"/>
       <c r="G4" s="6"/>
     </row>
     <row r="5" spans="2:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B5" s="10" t="s">
+      <c r="B5" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="C5" s="10"/>
-      <c r="D5" s="10"/>
-      <c r="E5" s="10"/>
-      <c r="F5" s="10"/>
+      <c r="C5" s="11"/>
+      <c r="D5" s="11"/>
+      <c r="E5" s="11"/>
+      <c r="F5" s="11"/>
       <c r="G5" s="6"/>
     </row>
     <row r="6" spans="2:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -635,9 +635,9 @@
         <v>7</v>
       </c>
       <c r="C6" s="7"/>
-      <c r="D6" s="11"/>
-      <c r="E6" s="11"/>
-      <c r="F6" s="12"/>
+      <c r="D6" s="12"/>
+      <c r="E6" s="12"/>
+      <c r="F6" s="8"/>
       <c r="G6" s="2" t="s">
         <v>5</v>
       </c>
